--- a/public/upload/export_excel/ข้อมูลผู้ใช้งาน05-2025.xlsx
+++ b/public/upload/export_excel/ข้อมูลผู้ใช้งาน05-2025.xlsx
@@ -15,180 +15,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
-  <si>
-    <t>ข้อมูลผู้ใช้งาน</t>
-  </si>
-  <si>
-    <t>รายงานผู้ใช้งาน วันที่ 01/01/1970</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+  <si>
+    <t>รายรับ-รายจ่าย</t>
+  </si>
+  <si>
+    <t>รายงานผู้ใช้งาน วันที่ 22/06/2025</t>
   </si>
   <si>
     <t>ลำดับ</t>
   </si>
   <si>
-    <t>ชื่อพนักงาน</t>
-  </si>
-  <si>
-    <t>ชื่อผู้ใช้งาน</t>
-  </si>
-  <si>
-    <t>อีเมล</t>
-  </si>
-  <si>
-    <t>เบอร์โทรศัพท์</t>
-  </si>
-  <si>
-    <t>เงินเดือน</t>
-  </si>
-  <si>
-    <t>วันที่เริ่มทำงาน</t>
-  </si>
-  <si>
-    <t>แม่บ้าน01</t>
-  </si>
-  <si>
-    <t>user_แม่บ้าน</t>
-  </si>
-  <si>
-    <t>pipat@ots.co.th</t>
-  </si>
-  <si>
-    <t>0909013717</t>
-  </si>
-  <si>
-    <t>2025-06-22</t>
-  </si>
-  <si>
-    <t>22/06/2025</t>
-  </si>
-  <si>
-    <t>ws</t>
-  </si>
-  <si>
-    <t>wolverine.wek_3@gmail.com</t>
-  </si>
-  <si>
-    <t>098758421</t>
-  </si>
-  <si>
-    <t>2024-12-02</t>
-  </si>
-  <si>
-    <t>09/06/2025</t>
-  </si>
-  <si>
-    <t>zwek</t>
-  </si>
-  <si>
-    <t>111@ggg</t>
-  </si>
-  <si>
-    <t>05/06/2025</t>
-  </si>
-  <si>
-    <t>11@gg</t>
-  </si>
-  <si>
-    <t>2024-09-11</t>
-  </si>
-  <si>
-    <t>11@g</t>
-  </si>
-  <si>
-    <t>1@g</t>
-  </si>
-  <si>
-    <t>4@k</t>
-  </si>
-  <si>
-    <t>02/12/2024</t>
-  </si>
-  <si>
-    <t>wek4</t>
-  </si>
-  <si>
-    <t>worawek</t>
-  </si>
-  <si>
-    <t>wolverineh.wek@gmail.com</t>
-  </si>
-  <si>
-    <t>0947</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>08/10/2024</t>
-  </si>
-  <si>
-    <t>12s</t>
-  </si>
-  <si>
-    <t>1@1</t>
-  </si>
-  <si>
-    <t>09999854</t>
-  </si>
-  <si>
-    <t>07/10/2024</t>
-  </si>
-  <si>
-    <t>wek 6</t>
-  </si>
-  <si>
-    <t>wek6@gmail.com</t>
-  </si>
-  <si>
-    <t>089</t>
-  </si>
-  <si>
-    <t>2024-10-01</t>
-  </si>
-  <si>
-    <t>01/01/1970</t>
-  </si>
-  <si>
-    <t>wek 5</t>
-  </si>
-  <si>
-    <t>wek5@gmail.com</t>
-  </si>
-  <si>
-    <t>0487</t>
-  </si>
-  <si>
-    <t>wek 4</t>
-  </si>
-  <si>
-    <t>wek4@gmail.com</t>
-  </si>
-  <si>
-    <t>wek_3</t>
-  </si>
-  <si>
-    <t>wek 3</t>
-  </si>
-  <si>
-    <t>wek3@gmail.com</t>
-  </si>
-  <si>
-    <t>wek 2</t>
-  </si>
-  <si>
-    <t>wek@gmail.com</t>
+    <t>เลขที่ใบเสร็จ</t>
+  </si>
+  <si>
+    <t>รายละเอียด</t>
+  </si>
+  <si>
+    <t>ห้อง</t>
+  </si>
+  <si>
+    <t>หมวดหมู่</t>
+  </si>
+  <si>
+    <t>จำนวนเงิน</t>
+  </si>
+  <si>
+    <t>โดย</t>
+  </si>
+  <si>
+    <t>16/06/2025</t>
+  </si>
+  <si>
+    <t>นำเข้าใหม่</t>
+  </si>
+  <si>
+    <t>A101</t>
+  </si>
+  <si>
+    <t>จ่ายบิล</t>
+  </si>
+  <si>
+    <t>4,000.00</t>
   </si>
   <si>
     <t>วรเวก ชึรัมย์</t>
   </si>
   <si>
-    <t>09999999999</t>
-  </si>
-  <si>
-    <t>wolverine.wek@gmail.com</t>
-  </si>
-  <si>
-    <t>27/09/2024</t>
+    <t>A102</t>
+  </si>
+  <si>
+    <t>เงินประกัน</t>
+  </si>
+  <si>
+    <t>รายรับ</t>
+  </si>
+  <si>
+    <t>2,000.00</t>
+  </si>
+  <si>
+    <t>ค่าแม็กกี้</t>
+  </si>
+  <si>
+    <t>A208</t>
+  </si>
+  <si>
+    <t>ย้ายออก</t>
+  </si>
+  <si>
+    <t>12/06/2025</t>
+  </si>
+  <si>
+    <t>ค่าซีอิ้ว</t>
+  </si>
+  <si>
+    <t>A201</t>
+  </si>
+  <si>
+    <t>13/06/2025</t>
+  </si>
+  <si>
+    <t>A103</t>
+  </si>
+  <si>
+    <t>14/11/2024</t>
   </si>
 </sst>
 </file>
@@ -531,15 +441,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H18"/>
+      <selection activeCell="A1" sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,9 +459,8 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -561,9 +470,8 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -585,9 +493,8 @@
       <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -603,372 +510,172 @@
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1">
-        <v>2000</v>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>150.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>23.0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
-        <v>44</v>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F10" s="1">
-        <v>4</v>
+        <v>2.0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1">
-        <v>500000</v>
+        <v>11.0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="1">
-        <v>100000</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1">
-        <v>15000</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="1">
-        <v>15000</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1">
-        <v>15000</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1">
-        <v>15000</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1">
-        <v>15000</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/public/upload/export_excel/ข้อมูลผู้ใช้งาน05-2025.xlsx
+++ b/public/upload/export_excel/ข้อมูลผู้ใช้งาน05-2025.xlsx
@@ -15,90 +15,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
-  <si>
-    <t>รายรับ-รายจ่าย</t>
-  </si>
-  <si>
-    <t>รายงานผู้ใช้งาน วันที่ 22/06/2025</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+  <si>
+    <t>ข้อมูลผู้เช่าปัจจุบัน</t>
+  </si>
+  <si>
+    <t>ข้อมูลผู้เช่าปัจจุบัน วันที่ 22/06/2025</t>
   </si>
   <si>
     <t>ลำดับ</t>
   </si>
   <si>
-    <t>เลขที่ใบเสร็จ</t>
-  </si>
-  <si>
-    <t>รายละเอียด</t>
+    <t>ชื่อผู้เช่า</t>
   </si>
   <si>
     <t>ห้อง</t>
   </si>
   <si>
-    <t>หมวดหมู่</t>
-  </si>
-  <si>
-    <t>จำนวนเงิน</t>
-  </si>
-  <si>
-    <t>โดย</t>
-  </si>
-  <si>
-    <t>16/06/2025</t>
-  </si>
-  <si>
-    <t>นำเข้าใหม่</t>
+    <t>เบอร์ติดต่อ</t>
+  </si>
+  <si>
+    <t>ยานพาหนะ</t>
+  </si>
+  <si>
+    <t>วันที่เข้าพัก</t>
+  </si>
+  <si>
+    <t>วันสิ้นสุดสัญญาเช่า</t>
+  </si>
+  <si>
+    <t>อายุสัญญา</t>
+  </si>
+  <si>
+    <t>บริษัท วรเวก ชึรัมย์</t>
+  </si>
+  <si>
+    <t>B101</t>
+  </si>
+  <si>
+    <t>0987776543</t>
+  </si>
+  <si>
+    <t>24/10/2025</t>
+  </si>
+  <si>
+    <t>A104</t>
+  </si>
+  <si>
+    <t>A201</t>
+  </si>
+  <si>
+    <t>A203</t>
+  </si>
+  <si>
+    <t>บริษัท วรเวก111 ชึรัมย์</t>
   </si>
   <si>
     <t>A101</t>
   </si>
   <si>
-    <t>จ่ายบิล</t>
-  </si>
-  <si>
-    <t>4,000.00</t>
-  </si>
-  <si>
-    <t>วรเวก ชึรัมย์</t>
-  </si>
-  <si>
-    <t>A102</t>
-  </si>
-  <si>
-    <t>เงินประกัน</t>
-  </si>
-  <si>
-    <t>รายรับ</t>
-  </si>
-  <si>
-    <t>2,000.00</t>
-  </si>
-  <si>
-    <t>ค่าแม็กกี้</t>
-  </si>
-  <si>
-    <t>A208</t>
-  </si>
-  <si>
-    <t>ย้ายออก</t>
-  </si>
-  <si>
-    <t>12/06/2025</t>
-  </si>
-  <si>
-    <t>ค่าซีอิ้ว</t>
-  </si>
-  <si>
-    <t>A201</t>
-  </si>
-  <si>
-    <t>13/06/2025</t>
-  </si>
-  <si>
-    <t>A103</t>
-  </si>
-  <si>
-    <t>14/11/2024</t>
+    <t xml:space="preserve">บริษัท ทดสอบ โดย คุณเวกรูปหล่อ </t>
+  </si>
+  <si>
+    <t>A304</t>
   </si>
 </sst>
 </file>
@@ -441,15 +420,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:G11"/>
+      <selection activeCell="A1" sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,8 +438,9 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -470,8 +450,9 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -493,190 +474,163 @@
       <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="1">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1">
-        <v>150.0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/public/upload/export_excel/ข้อมูลผู้ใช้งาน05-2025.xlsx
+++ b/public/upload/export_excel/ข้อมูลผู้ใช้งาน05-2025.xlsx
@@ -15,69 +15,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
-  <si>
-    <t>ข้อมูลผู้เช่าปัจจุบัน</t>
-  </si>
-  <si>
-    <t>ข้อมูลผู้เช่าปัจจุบัน วันที่ 22/06/2025</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+  <si>
+    <t>รายรับ-รายจ่าย</t>
+  </si>
+  <si>
+    <t>รายงานรายรับ - รายจ่ายประจำ วันที่ 22/06/2025</t>
   </si>
   <si>
     <t>ลำดับ</t>
   </si>
   <si>
-    <t>ชื่อผู้เช่า</t>
+    <t>เลขที่ใบเสร็จ</t>
+  </si>
+  <si>
+    <t>รายละเอียด</t>
   </si>
   <si>
     <t>ห้อง</t>
   </si>
   <si>
-    <t>เบอร์ติดต่อ</t>
-  </si>
-  <si>
-    <t>ยานพาหนะ</t>
-  </si>
-  <si>
-    <t>วันที่เข้าพัก</t>
-  </si>
-  <si>
-    <t>วันสิ้นสุดสัญญาเช่า</t>
-  </si>
-  <si>
-    <t>อายุสัญญา</t>
-  </si>
-  <si>
-    <t>บริษัท วรเวก ชึรัมย์</t>
-  </si>
-  <si>
-    <t>B101</t>
-  </si>
-  <si>
-    <t>0987776543</t>
-  </si>
-  <si>
-    <t>24/10/2025</t>
-  </si>
-  <si>
-    <t>A104</t>
+    <t>หมวดหมู่</t>
+  </si>
+  <si>
+    <t>จำนวนเงิน</t>
+  </si>
+  <si>
+    <t>โดย</t>
+  </si>
+  <si>
+    <t>16/06/2025</t>
+  </si>
+  <si>
+    <t>นำเข้าใหม่</t>
+  </si>
+  <si>
+    <t>A101</t>
+  </si>
+  <si>
+    <t>จ่ายบิล</t>
+  </si>
+  <si>
+    <t>4,000.00</t>
+  </si>
+  <si>
+    <t>วรเวก ชึรัมย์</t>
+  </si>
+  <si>
+    <t>A102</t>
+  </si>
+  <si>
+    <t>เงินประกัน</t>
+  </si>
+  <si>
+    <t>รายรับ</t>
+  </si>
+  <si>
+    <t>2,000.00</t>
+  </si>
+  <si>
+    <t>ค่าแม็กกี้</t>
+  </si>
+  <si>
+    <t>A208</t>
+  </si>
+  <si>
+    <t>ย้ายออก</t>
+  </si>
+  <si>
+    <t>12/06/2025</t>
+  </si>
+  <si>
+    <t>ค่าซีอิ้ว</t>
   </si>
   <si>
     <t>A201</t>
   </si>
   <si>
-    <t>A203</t>
-  </si>
-  <si>
-    <t>บริษัท วรเวก111 ชึรัมย์</t>
-  </si>
-  <si>
-    <t>A101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">บริษัท ทดสอบ โดย คุณเวกรูปหล่อ </t>
-  </si>
-  <si>
-    <t>A304</t>
+    <t>13/06/2025</t>
+  </si>
+  <si>
+    <t>A103</t>
+  </si>
+  <si>
+    <t>14/11/2024</t>
   </si>
 </sst>
 </file>
@@ -420,15 +441,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H10"/>
+      <selection activeCell="A1" sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,9 +459,8 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -450,9 +470,8 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -474,163 +493,190 @@
       <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1">
-        <v>6</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="1">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1">
-        <v>6</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6</v>
-      </c>
-      <c r="H10" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
